--- a/biology/Botanique/Rosa_californica/Rosa_californica.xlsx
+++ b/biology/Botanique/Rosa_californica/Rosa_californica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rosier de Californie (Rosa californica) est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un rosier classé dans la section des Cinnamomeae, originaire de l'ouest de l'Amérique du Nord (Oregon et Californie aux États-Unis, Nord du Mexique. Il pousse dans les zones relativement humides, souvent sur les rives des cours d'eau, jusqu'à une altitude de 1 600 mètres.
 Il en existe de nombreuses variétés.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbrisseau de 1 à 2,5 mètres de haut, fortement épineux dont les tiges dressées sont munies d'aiguillons robustes droits ou courbés. Il forme souvent des fourrés impénétrables.
 Les feuilles imparipennées, comptent de 5 à 7 folioles elliptiques à bords dentés, plus ou moins couvertes de poils.
@@ -547,7 +561,9 @@
           <t>Culture et utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La forme 'Plena' (Rosa californica forma plena Rehder) est cultivée pour ses fleurs mi-doubles, parfumées, d'une couleur entre le rose et le pourpre.
 </t>
